--- a/biology/Médecine/1686_en_santé_et_médecine/1686_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1686_en_santé_et_médecine/1686_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1686_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1686_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1686 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1686_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1686_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>26 août : Charles Bernard est élu chirurgien à l'hôpital St. Bartholomew de Londres, puis Serjeant Surgeon (en) de la maison royale de la reine Anne[1].
-18 novembre : Louis XIV est opéré avec succès d'une fistule anale par Charles-François Félix (1635-1703). Ce succès a un grand retentissement en France et dans les cours européennes. Par précaution, le  chirurgien barbier s'était pratiqué sur 75 prisonniers ou paysans[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>26 août : Charles Bernard est élu chirurgien à l'hôpital St. Bartholomew de Londres, puis Serjeant Surgeon (en) de la maison royale de la reine Anne.
+18 novembre : Louis XIV est opéré avec succès d'une fistule anale par Charles-François Félix (1635-1703). Ce succès a un grand retentissement en France et dans les cours européennes. Par précaution, le  chirurgien barbier s'était pratiqué sur 75 prisonniers ou paysans.
 Mort du rhinocéros londonien de 1684.
-Début des travaux de l'aqueduc de Maintenon dans le but d'alimenter en eau le château de Versailles[3].
-Début des travaux des glacières de Versailles servant à stocker la glace afin de permettre la conservation des aliments[4].
+Début des travaux de l'aqueduc de Maintenon dans le but d'alimenter en eau le château de Versailles.
+Début des travaux des glacières de Versailles servant à stocker la glace afin de permettre la conservation des aliments.
 Fin de la construction de l'hôtel-Dieu de Louhans, commencée en 1682 à Louhans en Saône-et-Loire.
-Rédaction des règles de la communauté des Servantes de Jésus de l'hospice Saint-Louis de Caen[5]. La congrégation s'occupe surtout des malades[6].</t>
+Rédaction des règles de la communauté des Servantes de Jésus de l'hospice Saint-Louis de Caen. La congrégation s'occupe surtout des malades.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1686_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1686_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Marcello Malpighi (1628-1694) fait paraître Opera omnia, figuris elegantissimis in aes incisis illustrata tomis duobus comprehensa à Londres, chez Robert Scott. Réimprimé l'année suivante à Leyde[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Marcello Malpighi (1628-1694) fait paraître Opera omnia, figuris elegantissimis in aes incisis illustrata tomis duobus comprehensa à Londres, chez Robert Scott. Réimprimé l'année suivante à Leyde.</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1686_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1686_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,10 +593,12 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>12 janvier : Adam Christian Thebesius (de) (mort en 1732), anatomiste allemand.
-6 juillet : Antoine de Jussieu (mort en 1758), botaniste et médecin français[8].</t>
+6 juillet : Antoine de Jussieu (mort en 1758), botaniste et médecin français.</t>
         </is>
       </c>
     </row>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1686_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1686_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>26 novembre : Nicolas Sténon (né en 1638), anatomiste, géologue et évêque danois[9].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>26 novembre : Nicolas Sténon (né en 1638), anatomiste, géologue et évêque danois.</t>
         </is>
       </c>
     </row>
